--- a/frontend/public/templates/[Company_Name]_Standard_Cash_Flow.xlsx
+++ b/frontend/public/templates/[Company_Name]_Standard_Cash_Flow.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,189 +490,770 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>收到的税费返还</t>
+          <t>客户存款和同业存放款项净增加额</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>收到其他与经营活动有关的现金</t>
+          <t>向中央银行借款净增加额</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>经营活动现金流入小计</t>
+          <t>向其他金融机构拆入资金净增加额</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>购买商品、接受劳务支付的现金</t>
+          <t>收到原保险合同保费取得的现金</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>支付给职工以及为职工支付的现金</t>
+          <t>收到再保险业务现金净额</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>支付的各项税费</t>
+          <t>保户储金及投资款净增加额</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>支付其他与经营活动有关的现金</t>
+          <t>处置交易性金融资产净增加额</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>经营活动现金流出小计</t>
+          <t>收取利息、手续费及佣金的现金</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>投资活动产生的现金流量净额</t>
+          <t>拆入资金净增加额</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>收回投资收到的现金</t>
+          <t>发放贷款及垫款的净减少额</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>取得投资收益收到的现金</t>
+          <t>回购业务资金净增加额</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>处置固定资产、无形资产和其他长期资产收回的现金净额</t>
+          <t>收到的税费返还</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>投资活动现金流入小计</t>
+          <t>收到其他与经营活动有关的现金</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>购建固定资产、无形资产和其他长期资产支付的现金</t>
+          <t>经营活动现金流入其他项目</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>投资支付的现金</t>
+          <t>经营活动现金流入平衡项目</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>投资活动现金流出小计</t>
+          <t>经营活动现金流入小计</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>筹资活动产生的现金流量净额</t>
+          <t>购买商品、接受劳务支付的现金</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>吸收投资收到的现金</t>
+          <t>客户贷款及垫款净增加额</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>取得借款收到的现金</t>
+          <t>存放中央银行和同业款项净增加额</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>筹资活动现金流入小计</t>
+          <t>支付原保险合同赔付款项的现金</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>偿还债务支付的现金</t>
+          <t>支付利息、手续费及佣金的现金</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>分配股利、利润或偿付利息支付的现金</t>
+          <t>支付保单红利的现金</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>筹资活动现金流出小计</t>
+          <t>支付给职工以及为职工支付的现金</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>汇率变动对现金及现金等价物的影响</t>
+          <t>支付的各项税费</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>现金及现金等价物净增加额</t>
+          <t>支付其他与经营活动有关的现金</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>期初现金及现金等价物余额</t>
+          <t>经营活动现金流出其他项目</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>经营活动现金流出平衡项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>经营活动现金流出小计</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>经营活动产生的现金流量净额其他项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>经营活动现金流量净额平衡项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>投资活动产生的现金流量净额</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>收回投资收到的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>取得投资收益收到的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>处置固定资产、无形资产和其他长期资产收回的现金净额</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>处置子公司及其他营业单位收到的现金净额</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>减少质押和定期存款所收到的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>收到其他与投资活动有关的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>投资活动现金流入其他项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>投资活动现金流入平衡项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>投资活动现金流入小计</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>购建固定资产、无形资产和其他长期资产支付的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>投资支付的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>质押贷款净增加额</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>取得子公司及其他营业单位支付的现金净额</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>增加质押和定期存款所支付的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>支付其他与投资活动有关的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>投资活动现金流出其他项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>投资活动现金流出平衡项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>投资活动现金流出小计</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>投资活动产生的现金流量净额其他项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>投资活动产生的现金流量净额平衡项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>筹资活动产生的现金流量净额</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>吸收投资收到的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>其中:子公司吸收少数股东投资收到的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>取得借款收到的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>发行债券收到的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>收到其他与筹资活动有关的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>筹资活动现金流入其他项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>筹资活动现金流入平衡项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>筹资活动现金流入小计</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>偿还债务支付的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>分配股利、利润或偿付利息支付的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>其中:子公司支付给少数股东的股利、利润</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>购买子公司少数股权而支付的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>支付其他与筹资活动有关的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>其中：子公司减资支付给少数股东的现金</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>筹资活动现金流出其他项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>筹资活动现金流出平衡项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>筹资活动现金流出小计</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>筹资活动产生的现金流量净额其他项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>筹资活动产生的现金流量净额平衡项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>汇率变动对现金及现金等价物的影响</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>现金及现金等价物净增加额其他项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>现金及现金等价物净增加额平衡项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>现金及现金等价物净增加额</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>期初现金及现金等价物余额</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>期末现金及现金等价物余额其他项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>期末现金及现金等价物余额平衡项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
           <t>期末现金及现金等价物余额</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>净利润</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>资产减值准备</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>固定资产折旧、油气资产折耗、生产性生物资产折旧</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>投资性房地产折旧摊销</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>无形资产摊销</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>长期待摊费用摊销</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>递延收益摊销</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>待摊费用的减少</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>预提费用的增加</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>处置固定资产、无形资产和其他长期资产的损失</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>固定资产报废损失</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>公允价值变动损失</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>财务费用</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>投资损失</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>递延所得税</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>递延所得税资产减少</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>递延所得税负债增加</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>预计负债的增加</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>存货的减少</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>经营性应收项目的减少</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>经营性应付项目的增加</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>经营活动现金流量净额(补充)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>债务转为资本</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>一年内到期的可转换公司债券</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>融资租入固定资产</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>现金的期末余额</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>现金的期初余额</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>现金等价物的期末余额</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>现金等价物的期初余额</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>现金及现金等价物净增加额(补充)</t>
         </is>
       </c>
     </row>
